--- a/weather_data.xlsx
+++ b/weather_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,6 +1123,676 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022030211</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>东风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022030210</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022030209</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>东风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022030208</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>东风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022030207</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022030206</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>东南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022030205</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>东风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2022030204</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2022030203</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2022030202</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>东风0级</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2022030201</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>东风0级</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022030200</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022030223</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>南风0级</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2022030222</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022030221</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>东风0级</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022030220</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022030219</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022030218</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>西南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022030217</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>西南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022030216</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2022030215</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2022030214</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>西风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022030213</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>西南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022030212</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>西南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022030211</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>东南风1级</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/weather_data.xlsx
+++ b/weather_data.xlsx
@@ -4,26 +4,48 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
+    <font>
+      <name val="Noto Sans CJK SC"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,16 +65,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -409,46 +457,827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="20.9" customWidth="1" style="3" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>时间</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>温度</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>空气质量</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>相对湿度</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>风力</t>
         </is>
       </c>
     </row>
+    <row r="2" ht="15" customHeight="1" s="4">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-07 22:00:00</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-07 23:00:00</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>东北风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 01:00:00</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 02:00:00</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 03:00:00</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>东风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 04:00:00</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 05:00:00</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 06:00:00</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="4">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 09:00:00</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>东北风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="4">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 10:00:00</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>东风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="4">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 11:00:00</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>东南风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="4">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 12:00:00</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>西南风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="4">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 13:00:00</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="4">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 14:00:00</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>东风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="4">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 15:00:00</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>南风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="4">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 16:00:00</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>南风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="4">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 17:00:00</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>南风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="4">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 18:00:00</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="4">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 19:00:00</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="4">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 20:00:00</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>南风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="4">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 21:00:00</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="4">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-08 22:00:00</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>南风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-03-08 23:00:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048499" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048500" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048501" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048502" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048503" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048504" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048505" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048506" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048507" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048508" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048509" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048510" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048511" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048512" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048513" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048514" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048515" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048516" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048517" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048518" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048519" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048520" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048521" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048522" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048523" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048524" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048525" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048526" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048527" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048528" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048529" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048530" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048531" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048532" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048533" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048534" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048535" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048536" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048537" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048538" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048539" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048540" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048541" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048542" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048543" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048544" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048545" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048546" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048547" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048548" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048549" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048550" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048551" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048552" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048553" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048554" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048555" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048556" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048557" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048558" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048559" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048560" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048561" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048562" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048563" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048564" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048565" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048566" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048567" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048568" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048569" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048570" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048571" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048572" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048573" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048574" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="4"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/weather_data.xlsx
+++ b/weather_data.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
@@ -1158,7 +1158,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>43</t>
         </is>
@@ -1175,25 +1175,349 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>2022-03-08 23:00:00</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-03-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-03-09 01:00:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022-03-09 02:00:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022-03-09 03:00:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>南风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022-03-09 04:00:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022-03-09 05:00:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2022-03-09 06:00:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2022-03-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2022-03-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>东北风1级</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2022-03-09 09:00:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>东北风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022-03-09 10:00:00</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>东南风2级</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022-03-09 11:00:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>东风2级</t>
         </is>
       </c>
     </row>
